--- a/MikaelHlvait18Testuppgift.xlsx
+++ b/MikaelHlvait18Testuppgift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhenn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C66766-C6C5-4A98-B210-2F940AD275CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FCE0D-5827-4727-891B-830C5777FB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="65">
   <si>
     <t>Step</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>TC-4 Delete user</t>
-  </si>
-  <si>
     <t>marc</t>
   </si>
   <si>
@@ -239,6 +236,30 @@
   </si>
   <si>
     <t>Not logged in</t>
+  </si>
+  <si>
+    <t>TC-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-7 </t>
+  </si>
+  <si>
+    <t>TC-8 Delete user</t>
+  </si>
+  <si>
+    <t>TC-9 Browse around as Marc</t>
+  </si>
+  <si>
+    <t>type "jp"</t>
+  </si>
+  <si>
+    <t>TC-10 Delete user as jp</t>
+  </si>
+  <si>
+    <t>Klick on users</t>
+  </si>
+  <si>
+    <t>TC-4 Delete user as Marc</t>
   </si>
 </sst>
 </file>
@@ -574,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="43.109375" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
@@ -880,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -900,7 +921,7 @@
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
@@ -1231,7 +1252,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1287,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -1346,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -1360,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -1374,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -1388,10 +1409,10 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
         <v>54</v>
-      </c>
-      <c r="C73" t="s">
-        <v>55</v>
       </c>
       <c r="D73" t="s">
         <v>39</v>
@@ -1400,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -1439,7 +1460,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -1619,6 +1640,1040 @@
         <v>23</v>
       </c>
       <c r="F93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1011</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>36</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="F164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" t="s">
+        <v>61</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D180" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" t="s">
+        <v>48</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="F182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>49</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="D185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" t="s">
+        <v>45</v>
+      </c>
+      <c r="G186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>36</v>
+      </c>
+      <c r="B187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="F187" t="s">
         <v>31</v>
       </c>
     </row>
